--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03DC0A-EA85-41BB-835D-3E5369471C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01480E6-B917-4B13-A3DF-5148261AC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -51,61 +51,61 @@
     <t>rewardValue</t>
   </si>
   <si>
-    <t>Mission0</t>
+    <t>stringid</t>
+  </si>
+  <si>
+    <t>Mission4</t>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyMaxClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불전 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 요괴전 보상 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mission1</t>
-  </si>
-  <si>
-    <t>stringid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mission2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mission3</t>
-  </si>
-  <si>
-    <t>Mission4</t>
-  </si>
-  <si>
-    <t>출석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반딧불전 입장 혹은 소탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비전 입장 혹은 소탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 요괴전 입장 혹은 소탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,14 +505,15 @@
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -527,44 +528,50 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>8800</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>8800</v>
@@ -575,16 +582,19 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -598,16 +608,19 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -621,16 +634,19 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -644,50 +660,33 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>8800</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8800</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="b">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01480E6-B917-4B13-A3DF-5148261AC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E38119-B220-4712-81E3-EEB0065E5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수련 레벨업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>Mission3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브 기술 레벨업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -565,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -643,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E38119-B220-4712-81E3-EEB0065E5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB003D8-91C8-45E2-8F54-A88E77905EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="39900" yWindow="2460" windowWidth="16110" windowHeight="12360" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -57,18 +57,10 @@
     <t>Mission4</t>
   </si>
   <si>
-    <t>출석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수련 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mission5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비전 보상 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고양이 요괴전 보상 받기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,7 +93,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브 기술 레벨업</t>
+    <t>Mission7</t>
+  </si>
+  <si>
+    <t>도깨비전 보상 받기(레벨 300이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검조각 보상 받기(레벨 5만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸석 보상 받기(레벨 5만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계꽃 보상 받기(레벨 20만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라 보상 받기(레벨 50만 이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
@@ -528,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -551,13 +561,13 @@
         <v>8800</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -565,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -577,13 +587,13 @@
         <v>8800</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -591,25 +601,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>8800</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -620,22 +630,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>8800</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,25 +653,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>8800</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -669,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -681,12 +691,38 @@
         <v>8800</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8800</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB003D8-91C8-45E2-8F54-A88E77905EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1384E1E-63C1-481C-B953-19C975D9BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="2460" windowWidth="16110" windowHeight="12360" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반딧불전 보상 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 요괴전 보상 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mission1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,23 +88,31 @@
     <t>Mission7</t>
   </si>
   <si>
-    <t>도깨비전 보상 받기(레벨 300이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검조각 보상 받기(레벨 5만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불멸석 보상 받기(레벨 5만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천계꽃 보상 받기(레벨 20만 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비나라 보상 받기(레벨 50만 이상)</t>
+    <t>도깨비나라 도깨비숲 보상 받기(레벨 50만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계 하늘꽃밭 보상 받기(레벨 20만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥 지옥불꽃 보상 받기(레벨 5만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의산 검기 보상 받기(레벨 5만 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 요괴전 클리어 또는 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전 클리어 또는 소탕(레벨 300이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불전 클리어 또는 소탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F2:F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -575,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1384E1E-63C1-481C-B953-19C975D9BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472688B-3D4B-4658-B97A-A2862484D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t>반딧불전 클리어 또는 소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission8</t>
+  </si>
+  <si>
+    <t>수미산 정화 보상 받기(레벨 100만 이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,6 +733,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8800</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
